--- a/总开支收入.xlsx
+++ b/总开支收入.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>92214</v>
+        <v>92582</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -425,7 +425,7 @@
     <row r="4" spans="1:2">
       <c r="B4">
         <f>SUM(B2:B3)</f>
-        <v>93830</v>
+        <v>94198</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/总开支收入.xlsx
+++ b/总开支收入.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -449,13 +449,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16400</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
         <f>SUM(B7:B8)</f>
-        <v>58100</v>
+        <v>83700</v>
       </c>
     </row>
   </sheetData>

--- a/总开支收入.xlsx
+++ b/总开支收入.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -419,13 +419,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1616</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4">
         <f>SUM(B2:B3)</f>
-        <v>94198</v>
+        <v>104672</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -449,13 +449,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>42000</v>
+        <v>61125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
         <f>SUM(B7:B8)</f>
-        <v>83700</v>
+        <v>102825</v>
       </c>
     </row>
   </sheetData>
